--- a/docs/实验追踪与分析文档/追踪分析表.xlsx
+++ b/docs/实验追踪与分析文档/追踪分析表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872689E8-14EE-4928-B3D1-E8D80D8C6D5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14292AC-508F-4769-826C-F35281C9840D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>文档名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,7 +156,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>各项因素对评审问题的影响曲线</a:t>
+              <a:t>不同文档中的行为因子情况</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -289,9 +289,9 @@
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>需求评审!$A$9:$A$14</c:f>
+              <c:f>需求评审!$A$9:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>版本数</c:v>
                 </c:pt>
@@ -306,19 +306,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>总人时</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>评审问题数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>需求评审!$B$9:$B$14</c:f>
+              <c:f>需求评审!$B$9:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -333,9 +330,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>54.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,9 +433,9 @@
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>需求评审!$A$9:$A$14</c:f>
+              <c:f>需求评审!$A$9:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>版本数</c:v>
                 </c:pt>
@@ -456,19 +450,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>总人时</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>评审问题数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>需求评审!$C$9:$C$14</c:f>
+              <c:f>需求评审!$C$9:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -483,9 +474,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,9 +577,9 @@
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>需求评审!$A$9:$A$14</c:f>
+              <c:f>需求评审!$A$9:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>版本数</c:v>
                 </c:pt>
@@ -606,19 +594,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>总人时</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>评审问题数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>需求评审!$D$9:$D$14</c:f>
+              <c:f>需求评审!$D$9:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -633,9 +618,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,7 +1882,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
